--- a/Data/Raw/Variables_description.xlsx
+++ b/Data/Raw/Variables_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ing.sharepoint.com/sites/LionsDen2024-PreliminaryTask/Shared Documents/Preliminary Task/Data Delivery 20240219/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23b304d51460242e/fourth_semester/UB_presentations_2025/ING-credit_risk/Data/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="772" documentId="14_{633ECA5D-F466-4375-B059-62C6001CB100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{473CF22F-05BB-4D30-8836-A4B1351CFF8F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{F9B88B08-201A-4C85-9D6F-378EAD8AA833}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{F9B88B08-201A-4C85-9D6F-378EAD8AA833}"/>
   </bookViews>
   <sheets>
     <sheet name="List of variables" sheetId="10" r:id="rId1"/>
@@ -607,7 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,26 +859,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1365,311 +1364,307 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:2" ht="64">
+      <c r="A5" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1691,14 +1686,14 @@
       <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -1709,7 +1704,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1720,7 +1715,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1731,7 +1726,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1742,7 +1737,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -1753,7 +1748,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -1764,7 +1759,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -1775,7 +1770,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -1786,7 +1781,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -1797,7 +1792,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -1808,7 +1803,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -1819,7 +1814,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -1830,7 +1825,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1841,7 +1836,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -1852,7 +1847,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1863,7 +1858,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -1874,7 +1869,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -1885,7 +1880,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -1896,7 +1891,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -1907,7 +1902,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -1918,7 +1913,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -1929,7 +1924,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -1940,7 +1935,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -1951,7 +1946,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -1962,7 +1957,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -1973,7 +1968,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -1984,7 +1979,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -1995,7 +1990,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -2006,7 +2001,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -2033,24 +2028,24 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="B2" s="9" t="s">
         <v>42</v>
       </c>
@@ -2058,7 +2053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
@@ -2096,7 +2091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="64">
       <c r="B6" t="s">
         <v>52</v>
       </c>
@@ -2122,7 +2117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" s="9" t="s">
         <v>60</v>
       </c>
@@ -2130,7 +2125,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" s="8" t="s">
         <v>62</v>
       </c>
@@ -2150,7 +2145,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="96">
       <c r="C12" s="7" t="s">
         <v>68</v>
       </c>
@@ -2158,7 +2153,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" s="9" t="s">
         <v>70</v>
       </c>
@@ -2166,7 +2161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" s="8" t="s">
         <v>62</v>
       </c>
@@ -2183,7 +2178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="B20" s="9" t="s">
         <v>74</v>
       </c>
@@ -2191,7 +2186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
@@ -2214,12 +2209,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="D23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2233,7 +2228,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19">
       <c r="A27" s="12"/>
       <c r="B27" s="11" t="s">
         <v>82</v>
@@ -2249,7 +2244,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2263,7 +2258,7 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -2274,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2285,7 +2280,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="29">
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
@@ -2296,7 +2291,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="43">
       <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
@@ -2307,7 +2302,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="B34" s="4" t="s">
         <v>8</v>
       </c>
@@ -2315,7 +2310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
@@ -2326,7 +2321,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="B36" s="2" t="s">
         <v>16</v>
       </c>
@@ -2334,7 +2329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2345,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
@@ -2356,7 +2351,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -2367,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
@@ -2375,7 +2370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="B46" s="4" t="s">
         <v>19</v>
       </c>
@@ -2383,7 +2378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="B47" s="4" t="s">
         <v>19</v>
       </c>
@@ -2391,7 +2386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="B48" s="4" t="s">
         <v>19</v>
       </c>
@@ -2399,7 +2394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="4" t="s">
         <v>19</v>
       </c>
@@ -2407,7 +2402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="4" t="s">
         <v>19</v>
       </c>
@@ -2415,7 +2410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="4" t="s">
         <v>19</v>
       </c>
@@ -2423,7 +2418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" s="4" t="s">
         <v>19</v>
       </c>
@@ -2431,7 +2426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2439,7 +2434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2447,7 +2442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
         <v>27</v>
       </c>
@@ -2455,7 +2450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
         <v>27</v>
       </c>
@@ -2463,7 +2458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2471,7 +2466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2479,7 +2474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2487,7 +2482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2495,7 +2490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" ht="28">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2503,7 +2498,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62" s="4" t="s">
         <v>37</v>
       </c>
@@ -2511,7 +2506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" s="4" t="s">
         <v>37</v>
       </c>
@@ -2519,7 +2514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" s="4" t="s">
         <v>37</v>
       </c>
@@ -2527,7 +2522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="B65" s="4" t="s">
         <v>37</v>
       </c>
@@ -2555,6 +2550,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067C6361CB6E9084599FB18326AE1C3F1" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa80e6e16b3d8ef5012652a01f080712">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b" xmlns:ns3="c5460d0a-0227-459c-9bd4-f350a9742f84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77d7b87a9bdb4a04f7565523db09d846" ns2:_="" ns3:_="">
     <xsd:import namespace="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b"/>
@@ -2731,15 +2735,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0D4B31-171B-40CB-848B-906BE9923B5F}">
   <ds:schemaRefs>
@@ -2758,6 +2753,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54ACB148-37B3-4A01-A27E-688D8988FEC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5589294D-78D5-4E27-BD78-C83536AE0C97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2776,14 +2779,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54ACB148-37B3-4A01-A27E-688D8988FEC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{587b6ea1-3db9-4fe1-a9d7-85d4c64ce5cc}" enabled="0" method="" siteId="{587b6ea1-3db9-4fe1-a9d7-85d4c64ce5cc}" removed="1"/>

--- a/Data/Raw/Variables_description.xlsx
+++ b/Data/Raw/Variables_description.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="772" documentId="14_{633ECA5D-F466-4375-B059-62C6001CB100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{473CF22F-05BB-4D30-8836-A4B1351CFF8F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{F9B88B08-201A-4C85-9D6F-378EAD8AA833}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{F9B88B08-201A-4C85-9D6F-378EAD8AA833}"/>
   </bookViews>
   <sheets>
     <sheet name="List of variables" sheetId="10" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2550,15 +2550,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067C6361CB6E9084599FB18326AE1C3F1" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa80e6e16b3d8ef5012652a01f080712">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b" xmlns:ns3="c5460d0a-0227-459c-9bd4-f350a9742f84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77d7b87a9bdb4a04f7565523db09d846" ns2:_="" ns3:_="">
     <xsd:import namespace="d4c10dd1-30eb-483b-838b-9ba5b6e8ef9b"/>
@@ -2735,6 +2726,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0D4B31-171B-40CB-848B-906BE9923B5F}">
   <ds:schemaRefs>
@@ -2753,14 +2753,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54ACB148-37B3-4A01-A27E-688D8988FEC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5589294D-78D5-4E27-BD78-C83536AE0C97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2779,6 +2771,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54ACB148-37B3-4A01-A27E-688D8988FEC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{587b6ea1-3db9-4fe1-a9d7-85d4c64ce5cc}" enabled="0" method="" siteId="{587b6ea1-3db9-4fe1-a9d7-85d4c64ce5cc}" removed="1"/>
